--- a/nb/confidence.xlsx
+++ b/nb/confidence.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\g\njit\njit-dm-scratch\nb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02A6BC37-0D31-498D-BAB4-4D72ED45B805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3B0FF1-7667-4143-9024-FE6E7B6F8895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15495" xr2:uid="{95F88E0A-280A-4A4C-A7A9-FD6F1B65CB6E}"/>
+    <workbookView xWindow="22932" yWindow="396" windowWidth="23256" windowHeight="12240" activeTab="1" xr2:uid="{95F88E0A-280A-4A4C-A7A9-FD6F1B65CB6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$G$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="40">
   <si>
     <t>antecedents</t>
   </si>
@@ -504,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16674FEB-6099-4B77-8324-B2BA1E265288}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,11 +523,11 @@
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" customWidth="1"/>
-    <col min="21" max="21" width="17" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -554,29 +558,29 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
       <c r="P1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="Q1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="S1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -607,30 +611,30 @@
       <c r="J2">
         <v>0.77777799999999997</v>
       </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
       </c>
       <c r="S2">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2">
-        <f>S7/S2</f>
+        <f>P7/P2</f>
         <v>0.66666566666716665</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -661,30 +665,30 @@
       <c r="J3">
         <v>0.66666700000000001</v>
       </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3">
+        <v>7</v>
+      </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="R3" t="s">
+        <v>35</v>
       </c>
       <c r="S3">
-        <v>0.77777799999999997</v>
-      </c>
-      <c r="T3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3">
-        <f>S7/S3</f>
+        <f>P7/P3</f>
         <v>0.57142783673490383</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -715,20 +719,20 @@
       <c r="J4">
         <v>1</v>
       </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
       <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4">
-        <v>6</v>
-      </c>
-      <c r="S4">
-        <v>0.66666700000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.66666700000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -759,20 +763,20 @@
       <c r="J5">
         <v>1</v>
       </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
       <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>0.222222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.222222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -803,20 +807,20 @@
       <c r="J6" t="s">
         <v>13</v>
       </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
       <c r="P6">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <v>0.222222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.222222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -847,20 +851,20 @@
       <c r="J7">
         <v>1.1666669999999999</v>
       </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
       <c r="P7">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7">
-        <v>4</v>
-      </c>
-      <c r="S7">
-        <v>0.44444400000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.44444400000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -891,20 +895,20 @@
       <c r="J8">
         <v>0.77777799999999997</v>
       </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
       <c r="P8">
-        <v>6</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8">
-        <v>4</v>
-      </c>
-      <c r="S8">
-        <v>0.44444400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.44444400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -935,20 +939,20 @@
       <c r="J9">
         <v>0.66666700000000001</v>
       </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
       <c r="P9">
-        <v>7</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <v>0.222222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.222222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -979,20 +983,20 @@
       <c r="J10">
         <v>1.088889</v>
       </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
       <c r="P10">
-        <v>8</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>15</v>
-      </c>
-      <c r="R10">
-        <v>4</v>
-      </c>
-      <c r="S10">
-        <v>0.44444400000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.44444400000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1023,20 +1027,20 @@
       <c r="J11" t="s">
         <v>13</v>
       </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
       <c r="P11">
-        <v>9</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>31</v>
-      </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <v>0.222222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.222222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1067,20 +1071,20 @@
       <c r="J12" t="s">
         <v>13</v>
       </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
       <c r="P12">
-        <v>10</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="S12">
-        <v>0.222222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.222222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1111,20 +1115,20 @@
       <c r="J13">
         <v>1.088889</v>
       </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
       <c r="P13">
-        <v>11</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13">
-        <v>2</v>
-      </c>
-      <c r="S13">
-        <v>0.222222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.222222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1155,20 +1159,20 @@
       <c r="J14">
         <v>0.66666700000000001</v>
       </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
       <c r="P14">
-        <v>12</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>34</v>
-      </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <v>0.222222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.222222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1200,7 +1204,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1524,4 +1528,607 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5706C467-E082-4C0D-8BE1-103CB91B75F9}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="F2">
+        <v>0.44444400000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.66666700000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.44444400000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.66666700000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.222222</v>
+      </c>
+      <c r="F4">
+        <v>0.222222</v>
+      </c>
+      <c r="G4">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.44444400000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.222222</v>
+      </c>
+      <c r="G5">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.222222</v>
+      </c>
+      <c r="F6">
+        <v>0.222222</v>
+      </c>
+      <c r="G6">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="E7">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.44444400000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.57142899999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="E8">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.44444400000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.57142899999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="E9">
+        <v>0.222222</v>
+      </c>
+      <c r="F9">
+        <v>0.222222</v>
+      </c>
+      <c r="G9">
+        <v>0.28571400000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="E10">
+        <v>0.222222</v>
+      </c>
+      <c r="F10">
+        <v>0.222222</v>
+      </c>
+      <c r="G10">
+        <v>0.28571400000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="E11">
+        <v>0.44444400000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.222222</v>
+      </c>
+      <c r="G11">
+        <v>0.28571400000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="E12">
+        <v>0.222222</v>
+      </c>
+      <c r="F12">
+        <v>0.222222</v>
+      </c>
+      <c r="G12">
+        <v>0.28571400000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>0.44444400000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.222222</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>0.44444400000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.222222</v>
+      </c>
+      <c r="F14">
+        <v>0.222222</v>
+      </c>
+      <c r="G14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0.44444400000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.222222</v>
+      </c>
+      <c r="G15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.44444400000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.66666700000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="F17">
+        <v>0.44444400000000001</v>
+      </c>
+      <c r="G17">
+        <v>0.66666700000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.44444400000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.222222</v>
+      </c>
+      <c r="G18">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>0.44444400000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="F19">
+        <v>0.222222</v>
+      </c>
+      <c r="G19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>0.222222</v>
+      </c>
+      <c r="E20">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="F20">
+        <v>0.222222</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>0.222222</v>
+      </c>
+      <c r="E21">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.222222</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>0.222222</v>
+      </c>
+      <c r="E22">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="F22">
+        <v>0.222222</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>0.222222</v>
+      </c>
+      <c r="E23">
+        <v>0.44444400000000001</v>
+      </c>
+      <c r="F23">
+        <v>0.222222</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>0.222222</v>
+      </c>
+      <c r="E24">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="F24">
+        <v>0.222222</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>0.222222</v>
+      </c>
+      <c r="E25">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.222222</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G25" xr:uid="{286F3C38-7A95-4B41-9EC5-9683344BB32B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G25">
+    <sortCondition ref="B2:B25"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>